--- a/Ecopulpers/Sensitivity Results/Price petroleum in Kenya.xlsx
+++ b/Ecopulpers/Sensitivity Results/Price petroleum in Kenya.xlsx
@@ -100,7 +100,7 @@
     <t>kha</t>
   </si>
   <si>
-    <t>intervention</t>
+    <t>Ecopulpers</t>
   </si>
   <si>
     <t>Price petroleum in Kenya</t>
@@ -670,7 +670,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P4">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q4">
         <v>0.2802074924111366</v>
@@ -743,7 +743,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P5">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q5">
         <v>0.2802074924111366</v>
@@ -816,7 +816,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P6">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q6">
         <v>0.2802074924111366</v>
@@ -889,7 +889,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P7">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q7">
         <v>0.2802074924111366</v>
@@ -962,7 +962,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P8">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q8">
         <v>0.2802074924111366</v>
@@ -1035,7 +1035,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="P9">
-        <v>8.62317938299384E-06</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="Q9">
         <v>0.2802074924111366</v>
